--- a/v1/BOM/gateway_bom.xlsx
+++ b/v1/BOM/gateway_bom.xlsx
@@ -81,9 +81,6 @@
     <t>2Mb SPI Flash</t>
   </si>
   <si>
-    <t>SST25VF020-20-4I-SAE</t>
-  </si>
-  <si>
     <t>20ppm, 9pF, 32.768KHz crystal</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>480371000</t>
+  </si>
+  <si>
+    <t>SST25VF020B-80-4I-SAE</t>
   </si>
 </sst>
 </file>
@@ -279,9 +279,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -313,7 +314,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -330,6 +331,7 @@
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -663,7 +665,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -683,10 +685,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -695,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -712,7 +714,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>13</v>
@@ -735,7 +737,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
@@ -744,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>17</v>
@@ -758,19 +760,19 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>3</v>
@@ -778,10 +780,10 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -790,10 +792,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>3</v>
@@ -804,16 +806,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>3</v>
@@ -821,13 +823,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
@@ -844,13 +846,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>8</v>
@@ -859,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>3</v>
@@ -867,13 +869,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>8</v>
@@ -882,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>3</v>
@@ -890,13 +892,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
@@ -905,7 +907,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>3</v>
@@ -913,13 +915,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -939,18 +941,18 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>3</v>
@@ -964,22 +966,22 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>3</v>
